--- a/DataSource/DataSource - Endoso - Adicional.xlsx
+++ b/DataSource/DataSource - Endoso - Adicional.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FEBD7C-9428-459F-8D46-7D325FA1202D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772D5ACA-929D-4A23-B051-88B38C46E6E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <t>silverarrow</t>
   </si>
   <si>
-    <t>04005238448</t>
+    <t>04104013002</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
